--- a/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="K114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="L114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="M114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="N114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="O114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="P114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="Q114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="R114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="S114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="T114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="U114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="V114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="W114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="X114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="Y114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="Z114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AA114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AB114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AC114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AD114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AE114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AF114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AG114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AH114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AI114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AJ114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AK114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AL114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AM114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AN114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AO114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AP114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AR114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
       <c r="AS114" t="n">
-        <v>1545914.861</v>
+        <v>40.88976632</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="K101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="L101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="M101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="N101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="O101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="P101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="Q101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="R101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="S101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="T101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="U101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="V101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="W101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="X101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="Y101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="Z101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AA101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AB101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AC101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AD101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AE101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AF101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AG101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AH101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AI101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AJ101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AK101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AL101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AM101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AN101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AO101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AP101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AQ101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AR101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
       <c r="AS101" t="n">
-        <v>546881.154</v>
+        <v>54688.1154</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="K103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="L103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="M103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="N103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="O103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="P103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="Q103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="R103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="S103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="T103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="U103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="V103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="W103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="X103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="Y103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="Z103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AA103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AB103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AC103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AD103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AE103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AF103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AG103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AH103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AI103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AJ103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AK103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AL103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AM103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AN103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AO103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AP103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AQ103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AR103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
       <c r="AS103" t="n">
-        <v>89456.20252000001</v>
+        <v>87409.98522</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="K105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="L105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="M105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="N105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="O105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="P105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="Q105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="R105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="S105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="T105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="U105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="V105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="W105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="X105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="Y105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="Z105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AA105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AB105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AC105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AD105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AE105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AF105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AG105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AH105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AI105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AJ105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AK105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AL105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AM105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AN105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AO105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AP105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AQ105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AR105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
       <c r="AS105" t="n">
-        <v>147860.4163</v>
+        <v>38443.70824</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="K106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="L106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="M106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="N106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="O106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="P106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="Q106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="R106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="S106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="T106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="U106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="V106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="W106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="X106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="Y106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="Z106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AA106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AB106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AC106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AD106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AE106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AF106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AG106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AH106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AI106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AJ106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AK106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AL106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AM106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AN106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AO106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AP106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AQ106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AR106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
       <c r="AS106" t="n">
-        <v>379079.789</v>
+        <v>56340.07452</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="K107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="L107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="M107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="N107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="O107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="P107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="Q107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="R107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="S107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="T107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="U107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="V107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="W107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="X107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="Y107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="Z107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AA107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AB107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AC107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AD107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AE107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AF107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AG107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AH107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AI107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AJ107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AK107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AL107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AM107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AN107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AO107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AP107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AQ107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AR107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
       <c r="AS107" t="n">
-        <v>128761.3644</v>
+        <v>257522.7288</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="K115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="L115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="M115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="N115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="O115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="P115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="Q115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="R115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="S115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="T115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="U115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="V115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="W115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="X115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="Y115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="Z115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AA115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AB115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AC115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AD115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AE115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AF115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AG115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AH115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AI115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AJ115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AK115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AL115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AM115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AN115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AO115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AP115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AQ115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AR115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>90070.36347</v>
+        <v>900703.6347000001</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="P100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="S100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="T100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="U100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="V100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="W100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="X100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="Z100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AD100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AE100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AF100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AG100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AH100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AI100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AJ100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AK100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AL100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AM100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AN100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AO100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AP100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AQ100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AR100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
       <c r="AS100">
-        <v>3242888.773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="K101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="L101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="M101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="N101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="O101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="P101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="Q101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="R101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="S101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="T101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="U101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="V101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="W101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="X101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="Y101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="Z101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AA101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AB101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AC101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AD101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AE101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AF101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AG101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AH101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AI101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AJ101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AK101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AL101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AM101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AN101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AO101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AP101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AQ101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AR101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
       <c r="AS101">
-        <v>177210.5569</v>
+        <v>54688.1154</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="K102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="L102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="M102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="N102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="O102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="P102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="Q102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="R102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="S102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="T102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="U102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="V102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="W102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="X102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="Y102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="Z102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AA102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AB102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AC102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AD102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AE102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AF102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AG102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AH102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AI102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AJ102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AK102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AL102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AM102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AN102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AO102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AP102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AQ102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AR102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
       <c r="AS102">
-        <v>160635.2805</v>
+        <v>512182.4956</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="K103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="L103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="M103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="N103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="O103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="P103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="Q103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="R103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="S103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="T103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="U103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="V103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="W103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="X103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="Y103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="Z103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AA103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AB103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AC103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AD103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AE103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AF103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AG103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AH103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AI103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AJ103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AK103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AL103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AM103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AN103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AO103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AP103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AQ103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AR103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
       <c r="AS103">
-        <v>9124.098803999999</v>
+        <v>87409.98522</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="O104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="P104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="S104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="T104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="U104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="V104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="W104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="X104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="Y104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AD104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AE104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AF104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AG104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AH104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AI104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AJ104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AK104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AL104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AM104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AN104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AO104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AP104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AQ104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AR104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
       <c r="AS104">
-        <v>46865.18234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="K105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="L105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="M105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="N105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="O105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="P105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="Q105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="R105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="S105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="T105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="U105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="V105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="W105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="X105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="Y105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="Z105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AA105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AB105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AC105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AD105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AE105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AF105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AG105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AH105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AI105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AJ105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AK105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AL105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AM105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AN105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AO105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AP105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AQ105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AR105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
       <c r="AS105">
-        <v>489947.6533</v>
+        <v>38443.70824</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="K106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="L106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="M106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="N106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="O106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="P106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="Q106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="R106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="S106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="T106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="U106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="V106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="W106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="X106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="Y106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="Z106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AA106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AB106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AC106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AD106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AE106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AF106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AG106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AH106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AI106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AJ106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AK106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AL106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AM106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AN106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AO106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AP106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AQ106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AR106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
       <c r="AS106">
-        <v>244964.9435</v>
+        <v>56340.07452</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="K107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="L107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="M107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="N107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="O107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="P107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="Q107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="R107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="S107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="T107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="U107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="V107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="W107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="X107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="Y107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="Z107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AA107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AB107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AC107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AD107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AE107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AF107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AG107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AH107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AI107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AJ107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AK107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AL107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AM107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AN107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AO107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AP107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AQ107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AR107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
       <c r="AS107">
-        <v>122503.8848</v>
+        <v>257522.7288</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="K114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="L114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="M114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="N114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="O114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="P114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="Q114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="R114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="S114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="T114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="U114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="V114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="W114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="X114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="Y114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="Z114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AA114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AB114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AC114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AD114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AE114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AF114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AG114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AH114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AI114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AJ114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AK114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AL114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AM114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AN114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AO114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AP114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AQ114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AR114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
       <c r="AS114">
-        <v>7327.926476</v>
+        <v>40.88976632</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="K115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="L115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="M115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="N115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="O115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="P115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="Q115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="R115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="S115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="T115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="U115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="V115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="W115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="X115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="Y115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="Z115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AA115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AB115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AC115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AD115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AE115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AF115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AG115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AH115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AI115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AJ115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AK115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AL115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AM115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AN115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AO115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AP115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AQ115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AR115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
       <c r="AS115">
-        <v>28896.84999</v>
+        <v>900703.6347000001</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/paraguay/model_input_variables_paraguay_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.048109382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1.015557647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.979479482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.002189302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.081296783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.980747383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.035095622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.9294800640000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.9282596400000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.934517852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.019408492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.053058283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.096183564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>3242888.773</v>
+        <v>2787682.15124505</v>
       </c>
       <c r="K96">
-        <v>3242888.773</v>
+        <v>2822942.68896158</v>
       </c>
       <c r="L96">
-        <v>3242888.773</v>
+        <v>2608239.23298399</v>
       </c>
       <c r="M96">
-        <v>3242888.773</v>
+        <v>1855477.74024192</v>
       </c>
       <c r="N96">
-        <v>3242888.773</v>
+        <v>1921026.44739681</v>
       </c>
       <c r="O96">
-        <v>3242888.773</v>
+        <v>3242888.7726109</v>
       </c>
       <c r="P96">
-        <v>3242888.773</v>
+        <v>3242889</v>
       </c>
       <c r="Q96">
-        <v>3242888.773</v>
+        <v>3480461.56613973</v>
       </c>
       <c r="R96">
-        <v>3242888.773</v>
+        <v>3735438.58990419</v>
       </c>
       <c r="S96">
-        <v>3242888.773</v>
+        <v>4009095.11390513</v>
       </c>
       <c r="T96">
-        <v>3242888.773</v>
+        <v>4302799.58979336</v>
       </c>
       <c r="U96">
-        <v>3242888.773</v>
+        <v>4618020.72136221</v>
       </c>
       <c r="V96">
-        <v>3242888.773</v>
+        <v>4956334.80897373</v>
       </c>
       <c r="W96">
-        <v>3242888.773</v>
+        <v>5319433.63203414</v>
       </c>
       <c r="X96">
-        <v>3242888.773</v>
+        <v>5709132.90893579</v>
       </c>
       <c r="Y96">
-        <v>3242888.773</v>
+        <v>6127381.37677069</v>
       </c>
       <c r="Z96">
-        <v>3242888.773</v>
+        <v>6576270.53621962</v>
       </c>
       <c r="AA96">
-        <v>3242888.773</v>
+        <v>7058045.11034743</v>
       </c>
       <c r="AB96">
-        <v>3242888.773</v>
+        <v>7575114.26960487</v>
       </c>
       <c r="AC96">
-        <v>3242888.773</v>
+        <v>8130063.6791689</v>
       </c>
       <c r="AD96">
-        <v>3242888.773</v>
+        <v>8725668.42886572</v>
       </c>
       <c r="AE96">
-        <v>3242888.773</v>
+        <v>9364906.91033395</v>
       </c>
       <c r="AF96">
-        <v>3242888.773</v>
+        <v>10050975.7108226</v>
       </c>
       <c r="AG96">
-        <v>3242888.773</v>
+        <v>10787305.5981015</v>
       </c>
       <c r="AH96">
-        <v>3242888.773</v>
+        <v>11577578.6764198</v>
       </c>
       <c r="AI96">
-        <v>3242888.773</v>
+        <v>12425746.7993008</v>
       </c>
       <c r="AJ96">
-        <v>3242888.773</v>
+        <v>13336051.3312513</v>
       </c>
       <c r="AK96">
-        <v>3242888.773</v>
+        <v>14313044.3572033</v>
       </c>
       <c r="AL96">
-        <v>3242888.773</v>
+        <v>15361611.4457508</v>
       </c>
       <c r="AM96">
-        <v>3242888.773</v>
+        <v>16486996.0800101</v>
       </c>
       <c r="AN96">
-        <v>3242888.773</v>
+        <v>17694825.8782744</v>
       </c>
       <c r="AO96">
-        <v>3242888.773</v>
+        <v>18991140.7355813</v>
       </c>
       <c r="AP96">
-        <v>3242888.773</v>
+        <v>20382423.0269187</v>
       </c>
       <c r="AQ96">
-        <v>3242888.773</v>
+        <v>21875630.0231035</v>
       </c>
       <c r="AR96">
-        <v>3242888.773</v>
+        <v>23478228.6814331</v>
       </c>
       <c r="AS96">
-        <v>3242888.773</v>
+        <v>25198232.9850844</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>177210.5569</v>
+        <v>200985.875179983</v>
       </c>
       <c r="K97">
-        <v>177210.5569</v>
+        <v>171013.883486288</v>
       </c>
       <c r="L97">
-        <v>177210.5569</v>
+        <v>176181.042500502</v>
       </c>
       <c r="M97">
-        <v>177210.5569</v>
+        <v>188110.565785273</v>
       </c>
       <c r="N97">
-        <v>177210.5569</v>
+        <v>173759.385957897</v>
       </c>
       <c r="O97">
-        <v>177210.5569</v>
+        <v>177210.556906891</v>
       </c>
       <c r="P97">
-        <v>177210.5569</v>
+        <v>177210.6</v>
       </c>
       <c r="Q97">
-        <v>177210.5569</v>
+        <v>184127.88686801</v>
       </c>
       <c r="R97">
-        <v>177210.5569</v>
+        <v>191315.184997277</v>
       </c>
       <c r="S97">
-        <v>177210.5569</v>
+        <v>198783.034080981</v>
       </c>
       <c r="T97">
-        <v>177210.5569</v>
+        <v>206542.385221553</v>
       </c>
       <c r="U97">
-        <v>177210.5569</v>
+        <v>214604.616989745</v>
       </c>
       <c r="V97">
-        <v>177210.5569</v>
+        <v>222981.552110541</v>
       </c>
       <c r="W97">
-        <v>177210.5569</v>
+        <v>231685.474800395</v>
       </c>
       <c r="X97">
-        <v>177210.5569</v>
+        <v>240729.148781214</v>
       </c>
       <c r="Y97">
-        <v>177210.5569</v>
+        <v>250125.835997506</v>
       </c>
       <c r="Z97">
-        <v>177210.5569</v>
+        <v>259889.316064136</v>
       </c>
       <c r="AA97">
-        <v>177210.5569</v>
+        <v>270033.90647321</v>
       </c>
       <c r="AB97">
-        <v>177210.5569</v>
+        <v>280574.483589729</v>
       </c>
       <c r="AC97">
-        <v>177210.5569</v>
+        <v>291526.504466774</v>
       </c>
       <c r="AD97">
-        <v>177210.5569</v>
+        <v>302906.029512256</v>
       </c>
       <c r="AE97">
-        <v>177210.5569</v>
+        <v>314729.746040421</v>
       </c>
       <c r="AF97">
-        <v>177210.5569</v>
+        <v>327014.992742691</v>
       </c>
       <c r="AG97">
-        <v>177210.5569</v>
+        <v>339779.785113696</v>
       </c>
       <c r="AH97">
-        <v>177210.5569</v>
+        <v>353042.841869794</v>
       </c>
       <c r="AI97">
-        <v>177210.5569</v>
+        <v>366823.612398818</v>
       </c>
       <c r="AJ97">
-        <v>177210.5569</v>
+        <v>381142.30528131</v>
       </c>
       <c r="AK97">
-        <v>177210.5569</v>
+        <v>396019.917925053</v>
       </c>
       <c r="AL97">
-        <v>177210.5569</v>
+        <v>411478.267356369</v>
       </c>
       <c r="AM97">
-        <v>177210.5569</v>
+        <v>427540.022213333</v>
       </c>
       <c r="AN97">
-        <v>177210.5569</v>
+        <v>444228.735987819</v>
       </c>
       <c r="AO97">
-        <v>177210.5569</v>
+        <v>461568.881565121</v>
       </c>
       <c r="AP97">
-        <v>177210.5569</v>
+        <v>479585.88711181</v>
       </c>
       <c r="AQ97">
-        <v>177210.5569</v>
+        <v>498306.173364446</v>
       </c>
       <c r="AR97">
-        <v>177210.5569</v>
+        <v>517757.192373816</v>
       </c>
       <c r="AS97">
-        <v>177210.5569</v>
+        <v>537967.467761546</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>160635.2805</v>
+        <v>150675.9084637</v>
       </c>
       <c r="K98">
-        <v>160635.2805</v>
+        <v>192312.082207071</v>
       </c>
       <c r="L98">
-        <v>160635.2805</v>
+        <v>237878.153233986</v>
       </c>
       <c r="M98">
-        <v>160635.2805</v>
+        <v>212413.912472056</v>
       </c>
       <c r="N98">
-        <v>160635.2805</v>
+        <v>213570.226898081</v>
       </c>
       <c r="O98">
-        <v>160635.2805</v>
+        <v>160635.280528935</v>
       </c>
       <c r="P98">
-        <v>160635.2805</v>
+        <v>160635.3</v>
       </c>
       <c r="Q98">
-        <v>160635.2805</v>
+        <v>169573.375788012</v>
       </c>
       <c r="R98">
-        <v>160635.2805</v>
+        <v>179008.784346544</v>
       </c>
       <c r="S98">
-        <v>160635.2805</v>
+        <v>188969.198285505</v>
       </c>
       <c r="T98">
-        <v>160635.2805</v>
+        <v>199483.829975275</v>
       </c>
       <c r="U98">
-        <v>160635.2805</v>
+        <v>210583.517222113</v>
       </c>
       <c r="V98">
-        <v>160635.2805</v>
+        <v>222300.813710726</v>
       </c>
       <c r="W98">
-        <v>160635.2805</v>
+        <v>234670.084479251</v>
       </c>
       <c r="X98">
-        <v>160635.2805</v>
+        <v>247727.606706649</v>
       </c>
       <c r="Y98">
-        <v>160635.2805</v>
+        <v>261511.676108124</v>
       </c>
       <c r="Z98">
-        <v>160635.2805</v>
+        <v>276062.7192506</v>
       </c>
       <c r="AA98">
-        <v>160635.2805</v>
+        <v>291423.41211765</v>
       </c>
       <c r="AB98">
-        <v>160635.2805</v>
+        <v>307638.805271637</v>
       </c>
       <c r="AC98">
-        <v>160635.2805</v>
+        <v>324756.455980114</v>
       </c>
       <c r="AD98">
-        <v>160635.2805</v>
+        <v>342826.567694017</v>
       </c>
       <c r="AE98">
-        <v>160635.2805</v>
+        <v>361902.137286711</v>
       </c>
       <c r="AF98">
-        <v>160635.2805</v>
+        <v>382039.110485703</v>
       </c>
       <c r="AG98">
-        <v>160635.2805</v>
+        <v>403296.545952913</v>
       </c>
       <c r="AH98">
-        <v>160635.2805</v>
+        <v>425736.788494687</v>
       </c>
       <c r="AI98">
-        <v>160635.2805</v>
+        <v>449425.65190958</v>
       </c>
       <c r="AJ98">
-        <v>160635.2805</v>
+        <v>474432.612010159</v>
       </c>
       <c r="AK98">
-        <v>160635.2805</v>
+        <v>500831.010384933</v>
       </c>
       <c r="AL98">
-        <v>160635.2805</v>
+        <v>528698.269498011</v>
       </c>
       <c r="AM98">
-        <v>160635.2805</v>
+        <v>558116.119757351</v>
       </c>
       <c r="AN98">
-        <v>160635.2805</v>
+        <v>589170.8392175341</v>
       </c>
       <c r="AO98">
-        <v>160635.2805</v>
+        <v>621953.506620109</v>
       </c>
       <c r="AP98">
-        <v>160635.2805</v>
+        <v>656560.268513606</v>
       </c>
       <c r="AQ98">
-        <v>160635.2805</v>
+        <v>693092.62123665</v>
       </c>
       <c r="AR98">
-        <v>160635.2805</v>
+        <v>731657.708591205</v>
       </c>
       <c r="AS98">
-        <v>160635.2805</v>
+        <v>772368.636078945</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>9124.098803999999</v>
+        <v>11561.7766875378</v>
       </c>
       <c r="K99">
-        <v>9124.098803999999</v>
+        <v>10706.6315674835</v>
       </c>
       <c r="L99">
-        <v>9124.098803999999</v>
+        <v>9815.459812431691</v>
       </c>
       <c r="M99">
-        <v>9124.098803999999</v>
+        <v>12318.5924346722</v>
       </c>
       <c r="N99">
-        <v>9124.098803999999</v>
+        <v>9208.435884415039</v>
       </c>
       <c r="O99">
-        <v>9124.098803999999</v>
+        <v>9124.09880350419</v>
       </c>
       <c r="P99">
-        <v>9124.098803999999</v>
+        <v>9124.099</v>
       </c>
       <c r="Q99">
-        <v>9124.098803999999</v>
+        <v>9488.589515064939</v>
       </c>
       <c r="R99">
-        <v>9124.098803999999</v>
+        <v>9867.640737501901</v>
       </c>
       <c r="S99">
-        <v>9124.098803999999</v>
+        <v>10261.8343400579</v>
       </c>
       <c r="T99">
-        <v>9124.098803999999</v>
+        <v>10671.7752322072</v>
       </c>
       <c r="U99">
-        <v>9124.098803999999</v>
+        <v>11098.0924884146</v>
       </c>
       <c r="V99">
-        <v>9124.098803999999</v>
+        <v>11541.440313481</v>
       </c>
       <c r="W99">
-        <v>9124.098803999999</v>
+        <v>12002.4990464531</v>
       </c>
       <c r="X99">
-        <v>9124.098803999999</v>
+        <v>12481.976204637</v>
       </c>
       <c r="Y99">
-        <v>9124.098803999999</v>
+        <v>12980.6075693182</v>
       </c>
       <c r="Z99">
-        <v>9124.098803999999</v>
+        <v>13499.1583148544</v>
       </c>
       <c r="AA99">
-        <v>9124.098803999999</v>
+        <v>14038.4241828732</v>
       </c>
       <c r="AB99">
-        <v>9124.098803999999</v>
+        <v>14599.2327033765</v>
       </c>
       <c r="AC99">
-        <v>9124.098803999999</v>
+        <v>15182.4444646262</v>
       </c>
       <c r="AD99">
-        <v>9124.098803999999</v>
+        <v>15788.9544337592</v>
       </c>
       <c r="AE99">
-        <v>9124.098803999999</v>
+        <v>16419.6933301585</v>
       </c>
       <c r="AF99">
-        <v>9124.098803999999</v>
+        <v>17075.6290536878</v>
       </c>
       <c r="AG99">
-        <v>9124.098803999999</v>
+        <v>17757.7681699815</v>
       </c>
       <c r="AH99">
-        <v>9124.098803999999</v>
+        <v>18467.1574550693</v>
       </c>
       <c r="AI99">
-        <v>9124.098803999999</v>
+        <v>19204.8855017053</v>
       </c>
       <c r="AJ99">
-        <v>9124.098803999999</v>
+        <v>19972.0843898673</v>
       </c>
       <c r="AK99">
-        <v>9124.098803999999</v>
+        <v>20769.931423989</v>
       </c>
       <c r="AL99">
-        <v>9124.098803999999</v>
+        <v>21599.650939592</v>
       </c>
       <c r="AM99">
-        <v>9124.098803999999</v>
+        <v>22462.5161820882</v>
       </c>
       <c r="AN99">
-        <v>9124.098803999999</v>
+        <v>23359.8512606383</v>
       </c>
       <c r="AO99">
-        <v>9124.098803999999</v>
+        <v>24293.0331800619</v>
       </c>
       <c r="AP99">
-        <v>9124.098803999999</v>
+        <v>25263.4939539191</v>
       </c>
       <c r="AQ99">
-        <v>9124.098803999999</v>
+        <v>26272.7228020064</v>
       </c>
       <c r="AR99">
-        <v>9124.098803999999</v>
+        <v>27322.2684356368</v>
       </c>
       <c r="AS99">
-        <v>9124.098803999999</v>
+        <v>28413.7414342143</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>46865.18234</v>
+        <v>67663.1409163878</v>
       </c>
       <c r="K100">
-        <v>46865.18234</v>
+        <v>66711.7067807611</v>
       </c>
       <c r="L100">
-        <v>46865.18234</v>
+        <v>64788.3152640055</v>
       </c>
       <c r="M100">
-        <v>46865.18234</v>
+        <v>59019.8420882763</v>
       </c>
       <c r="N100">
-        <v>46865.18234</v>
+        <v>31763.6507073848</v>
       </c>
       <c r="O100">
-        <v>46865.18234</v>
+        <v>46865.1823382456</v>
       </c>
       <c r="P100">
-        <v>46865.18234</v>
+        <v>46865.18</v>
       </c>
       <c r="Q100">
-        <v>46865.18234</v>
+        <v>71584.7586092218</v>
       </c>
       <c r="R100">
-        <v>46865.18234</v>
+        <v>109342.963478227</v>
       </c>
       <c r="S100">
-        <v>46865.18234</v>
+        <v>167017.168102328</v>
       </c>
       <c r="T100">
-        <v>46865.18234</v>
+        <v>255112.295785506</v>
       </c>
       <c r="U100">
-        <v>46865.18234</v>
+        <v>389674.212540096</v>
       </c>
       <c r="V100">
-        <v>46865.18234</v>
+        <v>595212.361094555</v>
       </c>
       <c r="W100">
-        <v>46865.18234</v>
+        <v>909163.971848155</v>
       </c>
       <c r="X100">
-        <v>46865.18234</v>
+        <v>1388712.97327678</v>
       </c>
       <c r="Y100">
-        <v>46865.18234</v>
+        <v>2121205.61511794</v>
       </c>
       <c r="Z100">
-        <v>46865.18234</v>
+        <v>3240059.93188853</v>
       </c>
       <c r="AA100">
-        <v>46865.18234</v>
+        <v>4949066.83605295</v>
       </c>
       <c r="AB100">
-        <v>46865.18234</v>
+        <v>7559509.10248835</v>
       </c>
       <c r="AC100">
-        <v>46865.18234</v>
+        <v>11546859.1885456</v>
       </c>
       <c r="AD100">
-        <v>46865.18234</v>
+        <v>17637382.9718932</v>
       </c>
       <c r="AE100">
-        <v>46865.18234</v>
+        <v>26940423.6266963</v>
       </c>
       <c r="AF100">
-        <v>46865.18234</v>
+        <v>41150460.1528733</v>
       </c>
       <c r="AG100">
-        <v>46865.18234</v>
+        <v>62855744.0023026</v>
       </c>
       <c r="AH100">
-        <v>46865.18234</v>
+        <v>96009729.6459306</v>
       </c>
       <c r="AI100">
-        <v>46865.18234</v>
+        <v>146651166.619665</v>
       </c>
       <c r="AJ100">
-        <v>46865.18234</v>
+        <v>224004012.408135</v>
       </c>
       <c r="AK100">
-        <v>46865.18234</v>
+        <v>342157507.038989</v>
       </c>
       <c r="AL100">
-        <v>46865.18234</v>
+        <v>522632422.359609</v>
       </c>
       <c r="AM100">
-        <v>46865.18234</v>
+        <v>798300909.032367</v>
       </c>
       <c r="AN100">
-        <v>46865.18234</v>
+        <v>1219373911.94495</v>
       </c>
       <c r="AO100">
-        <v>46865.18234</v>
+        <v>1862546716.79404</v>
       </c>
       <c r="AP100">
-        <v>46865.18234</v>
+        <v>2844968420.47977</v>
       </c>
       <c r="AQ100">
-        <v>46865.18234</v>
+        <v>4345579759.44834</v>
       </c>
       <c r="AR100">
-        <v>46865.18234</v>
+        <v>6637705821.1924</v>
       </c>
       <c r="AS100">
-        <v>46865.18234</v>
+        <v>10138840156.5743</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>489947.6533</v>
+        <v>369189.428968967</v>
       </c>
       <c r="K101">
-        <v>489947.6533</v>
+        <v>373643.447799493</v>
       </c>
       <c r="L101">
-        <v>489947.6533</v>
+        <v>398357.885470165</v>
       </c>
       <c r="M101">
-        <v>489947.6533</v>
+        <v>443378.387368673</v>
       </c>
       <c r="N101">
-        <v>489947.6533</v>
+        <v>427988.12578654</v>
       </c>
       <c r="O101">
-        <v>489947.6533</v>
+        <v>489947.653299795</v>
       </c>
       <c r="P101">
-        <v>489947.6533</v>
+        <v>489947.7</v>
       </c>
       <c r="Q101">
-        <v>489947.6533</v>
+        <v>530810.866816824</v>
       </c>
       <c r="R101">
-        <v>489947.6533</v>
+        <v>575082.149239252</v>
       </c>
       <c r="S101">
-        <v>489947.6533</v>
+        <v>623045.794742111</v>
       </c>
       <c r="T101">
-        <v>489947.6533</v>
+        <v>675009.7579264831</v>
       </c>
       <c r="U101">
-        <v>489947.6533</v>
+        <v>731307.677767996</v>
       </c>
       <c r="V101">
-        <v>489947.6533</v>
+        <v>792301.019773802</v>
       </c>
       <c r="W101">
-        <v>489947.6533</v>
+        <v>858381.396802118</v>
       </c>
       <c r="X101">
-        <v>489947.6533</v>
+        <v>929973.083445373</v>
       </c>
       <c r="Y101">
-        <v>489947.6533</v>
+        <v>1007535.74012074</v>
       </c>
       <c r="Z101">
-        <v>489947.6533</v>
+        <v>1091567.36435832</v>
       </c>
       <c r="AA101">
-        <v>489947.6533</v>
+        <v>1182607.48823598</v>
       </c>
       <c r="AB101">
-        <v>489947.6533</v>
+        <v>1281240.64249022</v>
       </c>
       <c r="AC101">
-        <v>489947.6533</v>
+        <v>1388100.10954471</v>
       </c>
       <c r="AD101">
-        <v>489947.6533</v>
+        <v>1503871.98955308</v>
       </c>
       <c r="AE101">
-        <v>489947.6533</v>
+        <v>1629299.60556241</v>
       </c>
       <c r="AF101">
-        <v>489947.6533</v>
+        <v>1765188.27608109</v>
       </c>
       <c r="AG101">
-        <v>489947.6533</v>
+        <v>1912410.48569367</v>
       </c>
       <c r="AH101">
-        <v>489947.6533</v>
+        <v>2071911.48692124</v>
       </c>
       <c r="AI101">
-        <v>489947.6533</v>
+        <v>2244715.36929431</v>
       </c>
       <c r="AJ101">
-        <v>489947.6533</v>
+        <v>2431931.63460541</v>
       </c>
       <c r="AK101">
-        <v>489947.6533</v>
+        <v>2634762.3205582</v>
       </c>
       <c r="AL101">
-        <v>489947.6533</v>
+        <v>2854509.7185512</v>
       </c>
       <c r="AM101">
-        <v>489947.6533</v>
+        <v>3092584.73514869</v>
       </c>
       <c r="AN101">
-        <v>489947.6533</v>
+        <v>3350515.95092446</v>
       </c>
       <c r="AO101">
-        <v>489947.6533</v>
+        <v>3629959.43484133</v>
       </c>
       <c r="AP101">
-        <v>489947.6533</v>
+        <v>3932709.37718053</v>
       </c>
       <c r="AQ101">
-        <v>489947.6533</v>
+        <v>4260709.60929065</v>
       </c>
       <c r="AR101">
-        <v>489947.6533</v>
+        <v>4616066.08411947</v>
       </c>
       <c r="AS101">
-        <v>489947.6533</v>
+        <v>5001060.39766121</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>168008.761969233</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>140831.880747706</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>139970.338995684</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>25040.5822645366</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>16150.443393682</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>44275.9404642896</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>44275.94</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>49846.2526563996</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>56117.3608936506</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>63177.431117561</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>71125.72186312079</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>80073.9792844131</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>90148.0082097446</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>101489.440849683</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>114257.728024521</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>128632.380906119</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>144815.49479109</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>163034.590387425</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>183545.812560596</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>206637.531510785</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>232634.397010686</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>261901.902702999</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>294851.52462772</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>331946.50622252</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>373708.371128357</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>420724.255364778</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>473655.16195903</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>533245.254081961</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>600332.3173442601</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>675859.538343936</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>760888.765061326</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>856615.4355314129</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>964385.384677786</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>1085713.76559793</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>1222306.35131689</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>1376083.51649368</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>244964.9435</v>
+        <v>290010.37017184</v>
       </c>
       <c r="K103">
-        <v>244964.9435</v>
+        <v>277279.394364313</v>
       </c>
       <c r="L103">
-        <v>244964.9435</v>
+        <v>288308.49810505</v>
       </c>
       <c r="M103">
-        <v>244964.9435</v>
+        <v>267935.955217259</v>
       </c>
       <c r="N103">
-        <v>244964.9435</v>
+        <v>249831.022617216</v>
       </c>
       <c r="O103">
-        <v>244964.9435</v>
+        <v>244964.943484318</v>
       </c>
       <c r="P103">
-        <v>244964.9435</v>
+        <v>244964.9</v>
       </c>
       <c r="Q103">
-        <v>244964.9435</v>
+        <v>254041.753465481</v>
       </c>
       <c r="R103">
-        <v>244964.9435</v>
+        <v>263454.937845447</v>
       </c>
       <c r="S103">
-        <v>244964.9435</v>
+        <v>273216.915441342</v>
       </c>
       <c r="T103">
-        <v>244964.9435</v>
+        <v>283340.610328862</v>
       </c>
       <c r="U103">
-        <v>244964.9435</v>
+        <v>293839.425468398</v>
       </c>
       <c r="V103">
-        <v>244964.9435</v>
+        <v>304727.260449482</v>
       </c>
       <c r="W103">
-        <v>244964.9435</v>
+        <v>316018.529892727</v>
       </c>
       <c r="X103">
-        <v>244964.9435</v>
+        <v>327728.182533627</v>
       </c>
       <c r="Y103">
-        <v>244964.9435</v>
+        <v>339871.721013492</v>
       </c>
       <c r="Z103">
-        <v>244964.9435</v>
+        <v>352465.222403692</v>
       </c>
       <c r="AA103">
-        <v>244964.9435</v>
+        <v>365525.35949042</v>
       </c>
       <c r="AB103">
-        <v>244964.9435</v>
+        <v>379069.422848116</v>
       </c>
       <c r="AC103">
-        <v>244964.9435</v>
+        <v>393115.343730809</v>
       </c>
       <c r="AD103">
-        <v>244964.9435</v>
+        <v>407681.717811654</v>
       </c>
       <c r="AE103">
-        <v>244964.9435</v>
+        <v>422787.829802115</v>
       </c>
       <c r="AF103">
-        <v>244964.9435</v>
+        <v>438453.678983375</v>
       </c>
       <c r="AG103">
-        <v>244964.9435</v>
+        <v>454700.005683785</v>
       </c>
       <c r="AH103">
-        <v>244964.9435</v>
+        <v>471548.31873739</v>
       </c>
       <c r="AI103">
-        <v>244964.9435</v>
+        <v>489020.923959906</v>
       </c>
       <c r="AJ103">
-        <v>244964.9435</v>
+        <v>507140.95367983</v>
       </c>
       <c r="AK103">
-        <v>244964.9435</v>
+        <v>525932.3973637871</v>
       </c>
       <c r="AL103">
-        <v>244964.9435</v>
+        <v>545420.133376661</v>
       </c>
       <c r="AM103">
-        <v>244964.9435</v>
+        <v>565629.961918559</v>
       </c>
       <c r="AN103">
-        <v>244964.9435</v>
+        <v>586588.639182201</v>
       </c>
       <c r="AO103">
-        <v>244964.9435</v>
+        <v>608323.91277598</v>
       </c>
       <c r="AP103">
-        <v>244964.9435</v>
+        <v>630864.558459568</v>
       </c>
       <c r="AQ103">
-        <v>244964.9435</v>
+        <v>654240.418240716</v>
       </c>
       <c r="AR103">
-        <v>244964.9435</v>
+        <v>678482.439883678</v>
       </c>
       <c r="AS103">
-        <v>244964.9435</v>
+        <v>703622.717881572</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>122503.8848</v>
+        <v>123173.665381735</v>
       </c>
       <c r="K104">
-        <v>122503.8848</v>
+        <v>121397.047708238</v>
       </c>
       <c r="L104">
-        <v>122503.8848</v>
+        <v>122577.356115681</v>
       </c>
       <c r="M104">
-        <v>122503.8848</v>
+        <v>122671.220886475</v>
       </c>
       <c r="N104">
-        <v>122503.8848</v>
+        <v>122465.803216216</v>
       </c>
       <c r="O104">
-        <v>122503.8848</v>
+        <v>122503.884767388</v>
       </c>
       <c r="P104">
-        <v>122503.8848</v>
+        <v>122503.9</v>
       </c>
       <c r="Q104">
-        <v>122503.8848</v>
+        <v>127880.54215903</v>
       </c>
       <c r="R104">
-        <v>122503.8848</v>
+        <v>133493.162771859</v>
       </c>
       <c r="S104">
-        <v>122503.8848</v>
+        <v>139352.118828781</v>
       </c>
       <c r="T104">
-        <v>122503.8848</v>
+        <v>145468.221883827</v>
       </c>
       <c r="U104">
-        <v>122503.8848</v>
+        <v>151852.758005369</v>
       </c>
       <c r="V104">
-        <v>122503.8848</v>
+        <v>158517.508602343</v>
       </c>
       <c r="W104">
-        <v>122503.8848</v>
+        <v>165474.772164531</v>
       </c>
       <c r="X104">
-        <v>122503.8848</v>
+        <v>172737.386957005</v>
       </c>
       <c r="Y104">
-        <v>122503.8848</v>
+        <v>180318.754710634</v>
       </c>
       <c r="Z104">
-        <v>122503.8848</v>
+        <v>188232.865352345</v>
       </c>
       <c r="AA104">
-        <v>122503.8848</v>
+        <v>196494.322820789</v>
       </c>
       <c r="AB104">
-        <v>122503.8848</v>
+        <v>205118.372015046</v>
       </c>
       <c r="AC104">
-        <v>122503.8848</v>
+        <v>214120.926926096</v>
       </c>
       <c r="AD104">
-        <v>122503.8848</v>
+        <v>223518.600002966</v>
       </c>
       <c r="AE104">
-        <v>122503.8848</v>
+        <v>233328.732807745</v>
       </c>
       <c r="AF104">
-        <v>122503.8848</v>
+        <v>243569.428016039</v>
       </c>
       <c r="AG104">
-        <v>122503.8848</v>
+        <v>254259.582821902</v>
       </c>
       <c r="AH104">
-        <v>122503.8848</v>
+        <v>265418.923808905</v>
       </c>
       <c r="AI104">
-        <v>122503.8848</v>
+        <v>277068.043351675</v>
       </c>
       <c r="AJ104">
-        <v>122503.8848</v>
+        <v>289228.437615079</v>
       </c>
       <c r="AK104">
-        <v>122503.8848</v>
+        <v>301922.546221187</v>
       </c>
       <c r="AL104">
-        <v>122503.8848</v>
+        <v>315173.793657184</v>
       </c>
       <c r="AM104">
-        <v>122503.8848</v>
+        <v>329006.632500672</v>
       </c>
       <c r="AN104">
-        <v>122503.8848</v>
+        <v>343446.588542103</v>
       </c>
       <c r="AO104">
-        <v>122503.8848</v>
+        <v>358520.307887615</v>
       </c>
       <c r="AP104">
-        <v>122503.8848</v>
+        <v>374255.606129198</v>
       </c>
       <c r="AQ104">
-        <v>122503.8848</v>
+        <v>390681.519672912</v>
       </c>
       <c r="AR104">
-        <v>122503.8848</v>
+        <v>407828.359319874</v>
       </c>
       <c r="AS104">
-        <v>122503.8848</v>
+        <v>425727.7661989</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>7327.926476</v>
+        <v>9774.781523741811</v>
       </c>
       <c r="K111">
-        <v>7327.926476</v>
+        <v>10141.8210262171</v>
       </c>
       <c r="L111">
-        <v>7327.926476</v>
+        <v>10841.5240678183</v>
       </c>
       <c r="M111">
-        <v>7327.926476</v>
+        <v>8813.211890297551</v>
       </c>
       <c r="N111">
-        <v>7327.926476</v>
+        <v>8950.334072418231</v>
       </c>
       <c r="O111">
-        <v>7327.926476</v>
+        <v>7327.9264758246</v>
       </c>
       <c r="P111">
-        <v>7327.926476</v>
+        <v>7327.926</v>
       </c>
       <c r="Q111">
-        <v>7327.926476</v>
+        <v>7244.22517468707</v>
       </c>
       <c r="R111">
-        <v>7327.926476</v>
+        <v>7161.48039453044</v>
       </c>
       <c r="S111">
-        <v>7327.926476</v>
+        <v>7079.68073941867</v>
       </c>
       <c r="T111">
-        <v>7327.926476</v>
+        <v>6998.81541397169</v>
       </c>
       <c r="U111">
-        <v>7327.926476</v>
+        <v>6918.87374611611</v>
       </c>
       <c r="V111">
-        <v>7327.926476</v>
+        <v>6839.84518567678</v>
       </c>
       <c r="W111">
-        <v>7327.926476</v>
+        <v>6761.71930298449</v>
       </c>
       <c r="X111">
-        <v>7327.926476</v>
+        <v>6684.48578749945</v>
       </c>
       <c r="Y111">
-        <v>7327.926476</v>
+        <v>6608.13444645067</v>
       </c>
       <c r="Z111">
-        <v>7327.926476</v>
+        <v>6532.65520349069</v>
       </c>
       <c r="AA111">
-        <v>7327.926476</v>
+        <v>6458.03809736585</v>
       </c>
       <c r="AB111">
-        <v>7327.926476</v>
+        <v>6384.27328060162</v>
       </c>
       <c r="AC111">
-        <v>7327.926476</v>
+        <v>6311.351018203</v>
       </c>
       <c r="AD111">
-        <v>7327.926476</v>
+        <v>6239.26168636979</v>
       </c>
       <c r="AE111">
-        <v>7327.926476</v>
+        <v>6167.99577122647</v>
       </c>
       <c r="AF111">
-        <v>7327.926476</v>
+        <v>6097.54386756665</v>
       </c>
       <c r="AG111">
-        <v>7327.926476</v>
+        <v>6027.89667761179</v>
       </c>
       <c r="AH111">
-        <v>7327.926476</v>
+        <v>5959.0450097842</v>
       </c>
       <c r="AI111">
-        <v>7327.926476</v>
+        <v>5890.97977749394</v>
       </c>
       <c r="AJ111">
-        <v>7327.926476</v>
+        <v>5823.69199793966</v>
       </c>
       <c r="AK111">
-        <v>7327.926476</v>
+        <v>5757.17279092313</v>
       </c>
       <c r="AL111">
-        <v>7327.926476</v>
+        <v>5691.41337767722</v>
       </c>
       <c r="AM111">
-        <v>7327.926476</v>
+        <v>5626.40507970742</v>
       </c>
       <c r="AN111">
-        <v>7327.926476</v>
+        <v>5562.13931764645</v>
       </c>
       <c r="AO111">
-        <v>7327.926476</v>
+        <v>5498.60761012205</v>
       </c>
       <c r="AP111">
-        <v>7327.926476</v>
+        <v>5435.80157263761</v>
       </c>
       <c r="AQ111">
-        <v>7327.926476</v>
+        <v>5373.71291646571</v>
       </c>
       <c r="AR111">
-        <v>7327.926476</v>
+        <v>5312.33344755419</v>
       </c>
       <c r="AS111">
-        <v>7327.926476</v>
+        <v>5251.65506544474</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>28896.84999</v>
+        <v>27094.1212550234</v>
       </c>
       <c r="K112">
-        <v>28896.84999</v>
+        <v>29374.6164374737</v>
       </c>
       <c r="L112">
-        <v>28896.84999</v>
+        <v>35171.9193004231</v>
       </c>
       <c r="M112">
-        <v>28896.84999</v>
+        <v>33496.2354516403</v>
       </c>
       <c r="N112">
-        <v>28896.84999</v>
+        <v>28564.7349286167</v>
       </c>
       <c r="O112">
-        <v>28896.84999</v>
+        <v>28896.8499895872</v>
       </c>
       <c r="P112">
-        <v>28896.84999</v>
+        <v>28896.85</v>
       </c>
       <c r="Q112">
-        <v>28896.84999</v>
+        <v>29942.1312384723</v>
       </c>
       <c r="R112">
-        <v>28896.84999</v>
+        <v>31025.2232718065</v>
       </c>
       <c r="S112">
-        <v>28896.84999</v>
+        <v>32147.4938239751</v>
       </c>
       <c r="T112">
-        <v>28896.84999</v>
+        <v>33310.3600934165</v>
       </c>
       <c r="U112">
-        <v>28896.84999</v>
+        <v>34515.2905426664</v>
       </c>
       <c r="V112">
-        <v>28896.84999</v>
+        <v>35763.8067527263</v>
       </c>
       <c r="W112">
-        <v>28896.84999</v>
+        <v>37057.4853445097</v>
       </c>
       <c r="X112">
-        <v>28896.84999</v>
+        <v>38397.9599697917</v>
       </c>
       <c r="Y112">
-        <v>28896.84999</v>
+        <v>39786.9233741778</v>
       </c>
       <c r="Z112">
-        <v>28896.84999</v>
+        <v>41226.1295346958</v>
       </c>
       <c r="AA112">
-        <v>28896.84999</v>
+        <v>42717.3958747103</v>
       </c>
       <c r="AB112">
-        <v>28896.84999</v>
+        <v>44262.6055589573</v>
       </c>
       <c r="AC112">
-        <v>28896.84999</v>
+        <v>45863.7098715962</v>
       </c>
       <c r="AD112">
-        <v>28896.84999</v>
+        <v>47522.7306802836</v>
       </c>
       <c r="AE112">
-        <v>28896.84999</v>
+        <v>49241.7629893787</v>
       </c>
       <c r="AF112">
-        <v>28896.84999</v>
+        <v>51022.9775855059</v>
       </c>
       <c r="AG112">
-        <v>28896.84999</v>
+        <v>52868.623778815</v>
       </c>
       <c r="AH112">
-        <v>28896.84999</v>
+        <v>54781.0322434002</v>
       </c>
       <c r="AI112">
-        <v>28896.84999</v>
+        <v>56762.6179604654</v>
       </c>
       <c r="AJ112">
-        <v>28896.84999</v>
+        <v>58815.8832679521</v>
       </c>
       <c r="AK112">
-        <v>28896.84999</v>
+        <v>60943.4210204812</v>
       </c>
       <c r="AL112">
-        <v>28896.84999</v>
+        <v>63147.9178635983</v>
       </c>
       <c r="AM112">
-        <v>28896.84999</v>
+        <v>65432.1576264587</v>
       </c>
       <c r="AN112">
-        <v>28896.84999</v>
+        <v>67799.0248372343</v>
       </c>
       <c r="AO112">
-        <v>28896.84999</v>
+        <v>70251.508365684</v>
       </c>
       <c r="AP112">
-        <v>28896.84999</v>
+        <v>72792.70519748519</v>
       </c>
       <c r="AQ112">
-        <v>28896.84999</v>
+        <v>75425.82434509401</v>
       </c>
       <c r="AR112">
-        <v>28896.84999</v>
+        <v>78154.1909000727</v>
       </c>
       <c r="AS112">
-        <v>28896.84999</v>
+        <v>80981.250232001</v>
       </c>
     </row>
     <row r="113" spans="1:45">
